--- a/outputs-r202/test-g__CAG-1000.xlsx
+++ b/outputs-r202/test-g__CAG-1000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Row</t>
   </si>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -95,14 +95,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,100 +138,100 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="C2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="D2">
-        <v>0.0078441358852558932</v>
+        <v>0.0055451312569114678</v>
       </c>
       <c r="E2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="F2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="G2">
-        <v>0.99215586411447776</v>
+        <v>0.99445486874282207</v>
       </c>
       <c r="H2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="I2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="J2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="K2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="L2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="M2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="N2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="O2">
-        <v>2.2200495108664503e-14</v>
+        <v>2.2200478549575e-14</v>
       </c>
       <c r="P2">
         <v>6</v>
